--- a/TEMOA_Europe_Results/1_Results_bau/_8_Biorefineries feedstock.xlsx
+++ b/TEMOA_Europe_Results/1_Results_bau/_8_Biorefineries feedstock.xlsx
@@ -472,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>71.21693174204634</v>
+        <v>67.91573794186611</v>
       </c>
       <c r="G2">
         <v>0</v>
